--- a/exposan/biobinder/data/impact_items.xlsx
+++ b/exposan/biobinder/data/impact_items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe706aea7ce832c4/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Rutgers\QSDsan\EXPOsan\exposan\biobinder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="8_{34EEE1E3-1662-47EA-AF80-23153F273966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68937A02-0685-49E0-A6D7-5D25212F97E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B208CAC-4DDE-40C3-8A85-2A3BD664C722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -36,6 +36,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="179">
   <si>
     <t>ecoinvent 3</t>
   </si>
@@ -318,15 +320,9 @@
     <t>Napatha</t>
   </si>
   <si>
-    <t>ton*km</t>
-  </si>
-  <si>
     <t>transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%</t>
   </si>
   <si>
-    <t>Transportation</t>
-  </si>
-  <si>
     <t>Petroleum</t>
   </si>
   <si>
@@ -550,6 +546,42 @@
   </si>
   <si>
     <t>1 kg represents 35% sand and 65% gravel</t>
+  </si>
+  <si>
+    <t>Biocrude_trans</t>
+  </si>
+  <si>
+    <t>Feedstock_trans</t>
+  </si>
+  <si>
+    <t>Wastewater</t>
+  </si>
+  <si>
+    <t>KOH</t>
+  </si>
+  <si>
+    <t>market for potassium hydrooxide</t>
+  </si>
+  <si>
+    <t>https://ecoquery.ecoinvent.org/3.10/cutoff/dataset/5111/impact_assessment</t>
+  </si>
+  <si>
+    <t>PNNL 32731</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>https://ecoquery.ecoinvent.org/3.10/cutoff/dataset/26546/impact_assessment</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>ecoinvent 4</t>
   </si>
 </sst>
 </file>
@@ -695,10 +727,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66379A7A-E84B-1346-816F-577916F7D6A6}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1020,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
@@ -1032,13 +1060,13 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1046,7 +1074,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1058,7 +1086,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1066,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -1078,10 +1106,10 @@
         <v>26</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1089,7 +1117,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>64</v>
@@ -1101,7 +1129,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1109,7 +1137,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>64</v>
@@ -1121,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1129,7 +1157,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -1141,7 +1169,7 @@
         <v>26</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1149,7 +1177,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -1161,7 +1189,7 @@
         <v>26</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1169,7 +1197,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
@@ -1181,7 +1209,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>29</v>
@@ -1192,7 +1220,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
@@ -1204,7 +1232,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1212,7 +1240,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
@@ -1224,7 +1252,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1232,22 +1260,22 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1255,22 +1283,22 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1278,19 +1306,19 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1298,7 +1326,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -1310,7 +1338,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1318,7 +1346,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -1330,7 +1358,7 @@
         <v>36</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1338,19 +1366,19 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>41</v>
@@ -1361,7 +1389,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
@@ -1373,7 +1401,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1381,22 +1409,22 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1404,7 +1432,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1413,10 +1441,10 @@
         <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>42</v>
@@ -1427,7 +1455,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
@@ -1439,7 +1467,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1447,7 +1475,7 @@
         <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
@@ -1464,7 +1492,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
@@ -1481,7 +1509,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
@@ -1493,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1501,7 +1529,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>8</v>
@@ -1513,7 +1541,7 @@
         <v>36</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1521,7 +1549,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
@@ -1533,7 +1561,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1541,19 +1569,19 @@
         <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1561,7 +1589,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
@@ -1573,7 +1601,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1581,7 +1609,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
@@ -1593,7 +1621,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1601,22 +1629,22 @@
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1624,22 +1652,22 @@
         <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1647,7 +1675,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -1659,7 +1687,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1667,7 +1695,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
@@ -1679,7 +1707,7 @@
         <v>26</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1687,7 +1715,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
@@ -1699,7 +1727,7 @@
         <v>36</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>34</v>
@@ -1710,7 +1738,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
@@ -1722,7 +1750,7 @@
         <v>36</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>37</v>
@@ -1733,19 +1761,19 @@
         <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1753,19 +1781,19 @@
         <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1773,7 +1801,7 @@
         <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>62</v>
@@ -1785,7 +1813,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1793,7 +1821,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>20</v>
@@ -1802,10 +1830,10 @@
         <v>43</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>42</v>
@@ -1816,7 +1844,7 @@
         <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -1828,93 +1856,167 @@
         <v>36</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F43" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>168</v>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1961,6 +2063,9 @@
     <hyperlink ref="F3" r:id="rId36" xr:uid="{22376439-7865-48DD-83C6-66FF4D5361A6}"/>
     <hyperlink ref="F42" r:id="rId37" xr:uid="{0EC83D8E-8B68-428B-B948-A13A17C99C21}"/>
     <hyperlink ref="F43" r:id="rId38" xr:uid="{B7B06AD9-E9DC-454D-A3BC-7133A5AE8CEF}"/>
+    <hyperlink ref="F44" r:id="rId39" xr:uid="{4E88FB74-D5F7-4A14-B729-B9BB379AF19B}"/>
+    <hyperlink ref="F45" r:id="rId40" xr:uid="{216CE607-FA70-4105-810A-63A848B0EA5D}"/>
+    <hyperlink ref="F46" r:id="rId41" xr:uid="{944B2D92-1B59-4FF1-AD7B-78D2FB147FF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1968,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D808FE82-F88E-9643-85A3-7681782C4413}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2011,7 +2116,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*215840</f>
@@ -2037,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2">
         <v>21.325296201433598</v>
@@ -2062,7 +2167,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2">
         <v>75.236440528108304</v>
@@ -2087,7 +2192,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2">
         <v>43.493000000000002</v>
@@ -2112,7 +2217,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2">
         <v>0.31334890192944098</v>
@@ -2137,7 +2242,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2">
         <v>0.117302046572221</v>
@@ -2162,7 +2267,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="2">
         <v>0.12767906248535599</v>
@@ -2187,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2">
         <v>0.174530550662853</v>
@@ -2212,7 +2317,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C10" s="4">
         <v>2.5977090891224099E-2</v>
@@ -2237,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C11" s="2">
         <v>0.37990787584425301</v>
@@ -2262,7 +2367,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2">
         <v>0.14318368408919699</v>
@@ -2287,7 +2392,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2">
         <v>5.9786322097455602E-2</v>
@@ -2312,7 +2417,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2">
         <v>9.7342320512326594E-2</v>
@@ -2337,7 +2442,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2">
         <v>7.6542160014301197E-2</v>
@@ -2362,7 +2467,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C16" s="2">
         <v>7.0632897376097598E-2</v>
@@ -2387,7 +2492,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2">
         <v>0.10047842525782801</v>
@@ -2412,7 +2517,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2">
         <v>1.7096030046587801E-2</v>
@@ -2437,7 +2542,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2">
         <v>1.3787544703542201E-2</v>
@@ -2462,7 +2567,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2">
         <v>5.65076955966161E-2</v>
@@ -2487,7 +2592,7 @@
         <v>82</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
@@ -2513,7 +2618,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
@@ -2539,7 +2644,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="2">
         <v>0.11367335126523601</v>
@@ -2564,7 +2669,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4">
         <v>2.98469490865079E-5</v>
@@ -2589,7 +2694,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" s="2">
         <v>0.110095153274783</v>
@@ -2614,7 +2719,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C26" s="2">
         <v>2.8631051151648599</v>
@@ -2639,7 +2744,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2">
         <v>2.2699573431286599</v>
@@ -2664,7 +2769,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C28" s="2">
         <v>9.9858711126060203E-3</v>
@@ -2689,7 +2794,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="2">
         <v>0.226542281383876</v>
@@ -2714,7 +2819,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2">
         <v>5.9536012849391202E-2</v>
@@ -2739,7 +2844,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="2">
         <v>0.198682515464633</v>
@@ -2764,7 +2869,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C32" s="2">
         <v>29064.5277441168</v>
@@ -2789,7 +2894,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C33" s="2">
         <v>6.3880065753294205E-2</v>
@@ -2814,7 +2919,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2">
         <v>2.67817388644431E-2</v>
@@ -2839,7 +2944,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C35" s="4">
         <v>7.2872000000000003E-5</v>
@@ -2864,7 +2969,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C36" s="4">
         <v>2.1423830798501299E-3</v>
@@ -2889,7 +2994,7 @@
         <v>76</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C37" s="2">
         <v>4.36952770562742E-3</v>
@@ -2914,7 +3019,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C38" s="2">
         <v>1.3787544703542201E-2</v>
@@ -2939,7 +3044,7 @@
         <v>90</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C39" s="2">
         <v>5.1123053711393397E-2</v>
@@ -2961,10 +3066,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C40" s="2">
         <v>4.2409616635924699E-2</v>
@@ -2986,10 +3091,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2">
         <v>4.2093037031240003E-2</v>
@@ -3011,10 +3116,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C42">
         <v>0.185939530629807</v>
@@ -3036,10 +3141,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C43">
         <v>1.9756680423582799E-3</v>
@@ -3057,6 +3162,106 @@
       </c>
       <c r="G43" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4.2409616635924699E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="18">C44*0.9</f>
+        <v>3.8168654972332232E-2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:E47" si="19">1.1*C44</f>
+        <v>4.6650578299517173E-2</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45">
+        <v>2.8913860393298099E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="18"/>
+        <v>2.6022474353968289E-2</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="19"/>
+        <v>3.1805246432627908E-2</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46">
+        <v>0.30266794396663199</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="18"/>
+        <v>0.2724011495699688</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="19"/>
+        <v>0.33293473836329524</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3067,10 +3272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B44E52-5A7F-8142-BD9E-CE1C29D2C0B8}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A22" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3111,7 +3316,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*26843000</f>
@@ -3137,7 +3342,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
         <v>0.97870879804797495</v>
@@ -3162,7 +3367,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2">
         <v>12.0899253247368</v>
@@ -3187,7 +3392,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>8314.4</v>
@@ -3212,7 +3417,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>2.4024558915611501E-2</v>
@@ -3237,7 +3442,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>7.58464936232896E-3</v>
@@ -3262,7 +3467,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2">
         <v>7.6171872092230903E-3</v>
@@ -3287,7 +3492,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2">
         <v>1.22392894677126E-2</v>
@@ -3312,7 +3517,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2">
         <v>8.8740864542808506E-3</v>
@@ -3337,7 +3542,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2">
         <v>3.4998273918621203E-2</v>
@@ -3362,7 +3567,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2">
         <v>5.0190733093349602E-3</v>
@@ -3387,7 +3592,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2">
         <v>4.8384646125633098E-3</v>
@@ -3412,7 +3617,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2">
         <v>6.9314694668063601E-3</v>
@@ -3437,7 +3642,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2">
         <v>8.4724271291066796E-3</v>
@@ -3462,7 +3667,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2">
         <v>5.3678593107162401E-3</v>
@@ -3487,7 +3692,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2">
         <v>1.2935505058070101E-2</v>
@@ -3512,7 +3717,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2">
         <v>6.0801504659941795E-4</v>
@@ -3537,7 +3742,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2">
         <v>1.11148143882793E-3</v>
@@ -3562,7 +3767,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2">
         <v>3.1103371065106899E-3</v>
@@ -3587,7 +3792,7 @@
         <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
@@ -3613,7 +3818,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
@@ -3639,7 +3844,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2">
         <v>1.01948679837781E-2</v>
@@ -3664,7 +3869,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2">
         <v>3.60476522044577E-6</v>
@@ -3689,7 +3894,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="2">
         <v>1.8443345199955202E-2</v>
@@ -3714,7 +3919,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2">
         <v>0.197878151089599</v>
@@ -3739,7 +3944,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2">
         <v>0.309584784172872</v>
@@ -3764,7 +3969,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2">
         <v>1.7749761070333901E-2</v>
@@ -3789,7 +3994,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2">
         <v>1.28365079036911E-2</v>
@@ -3814,7 +4019,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2">
         <v>3.6336272193785101E-3</v>
@@ -3839,7 +4044,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="2">
         <v>1.9533265815377801E-2</v>
@@ -3864,7 +4069,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2">
         <v>3348.6085375357002</v>
@@ -3889,7 +4094,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33" s="2">
         <v>4.7862152809516802E-3</v>
@@ -3914,7 +4119,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2">
         <v>1.8919364253997899E-3</v>
@@ -3939,7 +4144,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2">
         <v>1.49206761964559E-4</v>
@@ -3964,7 +4169,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2">
         <v>1.32640175512128E-4</v>
@@ -3989,7 +4194,7 @@
         <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2">
         <v>3.6896529636756901E-4</v>
@@ -4014,17 +4219,17 @@
         <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2">
         <v>1.11148143882793E-3</v>
       </c>
       <c r="D38" s="2">
-        <f>C38*0.9</f>
+        <f t="shared" ref="D38:D47" si="13">C38*0.9</f>
         <v>1.0003332949451371E-3</v>
       </c>
       <c r="E38" s="2">
-        <f>C38*1.1</f>
+        <f t="shared" ref="E38:E47" si="14">C38*1.1</f>
         <v>1.2226295827107232E-3</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -4039,17 +4244,17 @@
         <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C39" s="2">
         <v>2.3853100248855202E-3</v>
       </c>
       <c r="D39" s="2">
-        <f>C39*0.9</f>
+        <f t="shared" si="13"/>
         <v>2.1467790223969681E-3</v>
       </c>
       <c r="E39" s="2">
-        <f>C39*1.1</f>
+        <f t="shared" si="14"/>
         <v>2.6238410273740722E-3</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -4061,20 +4266,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2">
         <v>2.4919755756995701E-3</v>
       </c>
       <c r="D40" s="2">
-        <f>C40*0.9</f>
+        <f t="shared" si="13"/>
         <v>2.2427780181296132E-3</v>
       </c>
       <c r="E40" s="2">
-        <f>C40*1.1</f>
+        <f t="shared" si="14"/>
         <v>2.7411731332695273E-3</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -4086,20 +4291,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2">
         <v>1.6052019214626699E-3</v>
       </c>
       <c r="D41" s="2">
-        <f>C41*0.9</f>
+        <f t="shared" si="13"/>
         <v>1.444681729316403E-3</v>
       </c>
       <c r="E41" s="2">
-        <f>C41*1.1</f>
+        <f t="shared" si="14"/>
         <v>1.7657221136089371E-3</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -4111,20 +4316,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2">
         <v>1.14334099849404E-2</v>
       </c>
       <c r="D42" s="2">
-        <f>C42*0.9</f>
+        <f t="shared" si="13"/>
         <v>1.029006898644636E-2</v>
       </c>
       <c r="E42" s="2">
-        <f>C42*1.1</f>
+        <f t="shared" si="14"/>
         <v>1.2576750983434441E-2</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -4136,26 +4341,126 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2">
         <v>7.7561959726416501E-5</v>
       </c>
       <c r="D43" s="2">
-        <f>C43*0.9</f>
+        <f t="shared" si="13"/>
         <v>6.9805763753774851E-5</v>
       </c>
       <c r="E43" s="2">
-        <f>C43*1.1</f>
+        <f t="shared" si="14"/>
         <v>8.5318155699058164E-5</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2.4919755756995701E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="13"/>
+        <v>2.2427780181296132E-3</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="14"/>
+        <v>2.7411731332695273E-3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.9817413706640398E-3</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7835672335976358E-3</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="14"/>
+        <v>2.1799155077304438E-3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2.1711994645449401E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="13"/>
+        <v>1.9540795180904461E-2</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="14"/>
+        <v>2.3883194109994343E-2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4167,10 +4472,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE2E960-887B-1E49-80AF-9619BDC224B9}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5177,21 +5482,22 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="2">
-        <v>0.15247310276565701</v>
+        <f>(0.152/1000)*78</f>
+        <v>1.1856E-2</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" ref="D40" si="12">C40*0.9</f>
-        <v>0.13722579248909131</v>
+        <v>1.06704E-2</v>
       </c>
       <c r="E40" s="2">
         <f t="shared" ref="E40" si="13">C40*1.1</f>
-        <v>0.16772041304222271</v>
+        <v>1.3041600000000002E-2</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>1</v>
@@ -5202,7 +5508,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>11</v>
@@ -5211,11 +5517,11 @@
         <v>0.22303999999999999</v>
       </c>
       <c r="D41" s="2">
-        <f>C41*0.9</f>
+        <f t="shared" ref="D41:D47" si="14">C41*0.9</f>
         <v>0.200736</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:E43" si="14">C41*1.1</f>
+        <f t="shared" ref="E41:E47" si="15">C41*1.1</f>
         <v>0.24534400000000001</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -5227,7 +5533,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>11</v>
@@ -5236,11 +5542,11 @@
         <v>3.1633469260934199</v>
       </c>
       <c r="D42" s="2">
-        <f>C42*0.9</f>
+        <f t="shared" si="14"/>
         <v>2.8470122334840782</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.4796816187027622</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -5252,7 +5558,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>11</v>
@@ -5261,24 +5567,105 @@
         <v>1.2768596483245701E-2</v>
       </c>
       <c r="D43" s="2">
-        <f>C43*0.9</f>
+        <f t="shared" si="14"/>
         <v>1.1491736834921131E-2</v>
       </c>
       <c r="E43" s="2">
+        <f t="shared" si="15"/>
+        <v>1.4045456131570272E-2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <f>(0.152/1000)*100*1.61</f>
+        <v>2.4472000000000004E-2</v>
+      </c>
+      <c r="D44" s="2">
         <f t="shared" si="14"/>
-        <v>1.4045456131570272E-2</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+        <v>2.2024800000000004E-2</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="15"/>
+        <v>2.6919200000000008E-2</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N44" s="10"/>
     </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>0.47772455413596498</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="14"/>
+        <v>0.4299520987223685</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="15"/>
+        <v>0.52549700954956158</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+    </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>4.66921032578135</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="14"/>
+        <v>4.202289293203215</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="15"/>
+        <v>5.136131358359485</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="13"/>
@@ -5290,6 +5677,29 @@
       <c r="S46" s="13"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="13"/>
@@ -5300,39 +5710,31 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-    </row>
-    <row r="50" spans="7:19" x14ac:dyDescent="0.35">
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-    </row>
-    <row r="52" spans="7:19" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="G52" s="6"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
+    <row r="49" spans="7:19" x14ac:dyDescent="0.35">
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+    </row>
+    <row r="51" spans="7:19" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="G51" s="6"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+    </row>
+    <row r="54" spans="7:19" x14ac:dyDescent="0.35">
+      <c r="N54" s="7"/>
     </row>
     <row r="55" spans="7:19" x14ac:dyDescent="0.35">
       <c r="N55" s="7"/>
@@ -5342,9 +5744,6 @@
     </row>
     <row r="57" spans="7:19" x14ac:dyDescent="0.35">
       <c r="N57" s="7"/>
-    </row>
-    <row r="58" spans="7:19" x14ac:dyDescent="0.35">
-      <c r="N58" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5354,10 +5753,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB3A8C1-31D1-8447-9043-3E804D12662D}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5396,7 +5795,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*147170000</f>
@@ -5422,7 +5821,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2">
         <v>2484.8652660384901</v>
@@ -5447,7 +5846,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2">
         <v>306241.232251468</v>
@@ -5472,7 +5871,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2">
         <v>57484</v>
@@ -5497,7 +5896,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2">
         <v>581.83501611504505</v>
@@ -5522,7 +5921,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2">
         <v>255.11112846260701</v>
@@ -5547,7 +5946,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2">
         <v>199.09792144005999</v>
@@ -5572,7 +5971,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2">
         <v>48.486540462574403</v>
@@ -5597,7 +5996,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2">
         <v>71.903022295471501</v>
@@ -5622,7 +6021,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2">
         <v>87.506756177034404</v>
@@ -5647,7 +6046,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2">
         <v>41.684837593656297</v>
@@ -5672,7 +6071,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2">
         <v>28.642036934215199</v>
@@ -5697,7 +6096,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2">
         <v>28.645317158834001</v>
@@ -5722,7 +6121,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2">
         <v>30.656683486511401</v>
@@ -5747,7 +6146,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2">
         <v>25.247678616309202</v>
@@ -5772,7 +6171,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2">
         <v>143.19472609935599</v>
@@ -5797,7 +6196,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2">
         <v>2.6598671965886198</v>
@@ -5822,7 +6221,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="2">
         <v>4.6013405389463697</v>
@@ -5847,7 +6246,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2">
         <v>4.8990766660827303</v>
@@ -5872,7 +6271,7 @@
         <v>82</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
@@ -5898,7 +6297,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
@@ -5924,7 +6323,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2">
         <v>208.45914082307499</v>
@@ -5949,7 +6348,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2">
         <v>2.5091320140366798E-2</v>
@@ -5974,7 +6373,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2">
         <v>225.15240439202299</v>
@@ -5999,7 +6398,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2">
         <v>22005.584836736201</v>
@@ -6024,7 +6423,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2">
         <v>2539.6672072286301</v>
@@ -6049,7 +6448,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2">
         <v>2.21014696791292</v>
@@ -6074,7 +6473,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2">
         <v>62.650275543428002</v>
@@ -6099,7 +6498,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2">
         <v>5.2142739335973296</v>
@@ -6124,7 +6523,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2">
         <v>21.581180198460299</v>
@@ -6149,7 +6548,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2">
         <v>13464500.4320234</v>
@@ -6174,7 +6573,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2">
         <v>20.531278798534299</v>
@@ -6199,7 +6598,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2">
         <v>3.9306797133582498</v>
@@ -6224,7 +6623,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2">
         <v>1.5405748665879899</v>
@@ -6249,7 +6648,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2">
         <v>0.149099564772355</v>
@@ -6274,7 +6673,7 @@
         <v>76</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2">
         <v>0.372334579657497</v>
@@ -6299,17 +6698,17 @@
         <v>86</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2">
         <v>4.6013405389463697</v>
       </c>
       <c r="D38" s="2">
-        <f>C38*0.9</f>
+        <f t="shared" ref="D38:D47" si="10">C38*0.9</f>
         <v>4.1412064850517325</v>
       </c>
       <c r="E38" s="2">
-        <f>C38*1.1</f>
+        <f t="shared" ref="E38:E47" si="11">C38*1.1</f>
         <v>5.061474592841007</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -6324,17 +6723,17 @@
         <v>90</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2">
         <v>4.6735324018751596</v>
       </c>
       <c r="D39" s="2">
-        <f>C39*0.9</f>
+        <f t="shared" si="10"/>
         <v>4.2061791616876434</v>
       </c>
       <c r="E39" s="2">
-        <f>C39*1.1</f>
+        <f t="shared" si="11"/>
         <v>5.1408856420626758</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -6346,20 +6745,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2">
         <v>3.3675774944746801</v>
       </c>
       <c r="D40" s="2">
-        <f>C40*0.9</f>
+        <f t="shared" si="10"/>
         <v>3.0308197450272121</v>
       </c>
       <c r="E40" s="2">
-        <f>C40*1.1</f>
+        <f t="shared" si="11"/>
         <v>3.7043352439221486</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -6371,20 +6770,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2">
         <v>3.2898855967499401</v>
       </c>
       <c r="D41" s="2">
-        <f>C41*0.9</f>
+        <f t="shared" si="10"/>
         <v>2.9608970370749463</v>
       </c>
       <c r="E41" s="2">
-        <f>C41*1.1</f>
+        <f t="shared" si="11"/>
         <v>3.6188741564249343</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -6396,20 +6795,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C42">
         <v>48.833705970541303</v>
       </c>
       <c r="D42" s="2">
-        <f>C42*0.9</f>
+        <f t="shared" si="10"/>
         <v>43.950335373487171</v>
       </c>
       <c r="E42" s="2">
-        <f>C42*1.1</f>
+        <f t="shared" si="11"/>
         <v>53.717076567595434</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -6421,20 +6820,20 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C43">
         <v>0.18969905628578301</v>
       </c>
       <c r="D43" s="2">
-        <f>C43*0.9</f>
+        <f t="shared" si="10"/>
         <v>0.1707291506572047</v>
       </c>
       <c r="E43" s="2">
-        <f>C43*1.1</f>
+        <f t="shared" si="11"/>
         <v>0.20866896191436132</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -6442,6 +6841,106 @@
       </c>
       <c r="G43" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3.3675774944746801</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="10"/>
+        <v>3.0308197450272121</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="11"/>
+        <v>3.7043352439221486</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45">
+        <v>12.7708111517478</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="10"/>
+        <v>11.493730036573021</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="11"/>
+        <v>14.047892266922581</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46">
+        <v>98.638881070774502</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="10"/>
+        <v>88.774992963697059</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="11"/>
+        <v>108.50276917785196</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6452,10 +6951,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CC6322-9D61-AD41-A8B1-E5A60BE6F0EB}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6495,7 +6994,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*27759</f>
@@ -6521,7 +7020,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2">
         <v>0.443062849089773</v>
@@ -6546,7 +7045,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2">
         <v>10.363081802999201</v>
@@ -6571,7 +7070,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2">
         <v>4.2713000000000001</v>
@@ -6596,7 +7095,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2">
         <v>2.1274281791592398E-2</v>
@@ -6621,7 +7120,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2">
         <v>9.0231201767968193E-3</v>
@@ -6646,7 +7145,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2">
         <v>8.1882105328202597E-3</v>
@@ -6671,7 +7170,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2">
         <v>3.5128111355206902E-2</v>
@@ -6696,7 +7195,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="4">
         <v>2.3544484274494399E-3</v>
@@ -6721,7 +7220,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2">
         <v>4.5729917724817097E-2</v>
@@ -6746,7 +7245,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="2">
         <v>6.2582231922851004E-3</v>
@@ -6771,7 +7270,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2">
         <v>2.5886915745556198E-3</v>
@@ -6796,7 +7295,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2">
         <v>6.3368739413371296E-3</v>
@@ -6821,7 +7320,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2">
         <v>4.3540639925160598E-3</v>
@@ -6846,7 +7345,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2">
         <v>3.6760830470472898E-3</v>
@@ -6871,7 +7370,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2">
         <v>8.7330598683378405E-3</v>
@@ -6896,7 +7395,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4">
         <v>2.4485674017635001E-4</v>
@@ -6921,7 +7420,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C19" s="4">
         <v>2.3157863041230798E-3</v>
@@ -6946,7 +7445,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2">
         <v>7.6446539348562904E-4</v>
@@ -6971,7 +7470,7 @@
         <v>82</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
@@ -6997,7 +7496,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
@@ -7023,7 +7522,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="2">
         <v>6.6197828363014502E-3</v>
@@ -7048,7 +7547,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" s="4">
         <v>2.1227574542267201E-6</v>
@@ -7073,7 +7572,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C25" s="2">
         <v>2.19661384461909E-2</v>
@@ -7098,7 +7597,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" s="2">
         <v>0.61975586839290497</v>
@@ -7123,7 +7622,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2">
         <v>0.21084779685831101</v>
@@ -7148,7 +7647,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" s="4">
         <v>2.3160990173879E-4</v>
@@ -7173,7 +7672,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C29" s="2">
         <v>2.3154266991818599E-2</v>
@@ -7198,7 +7697,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="2">
         <v>7.8469975026371598E-4</v>
@@ -7223,7 +7722,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" s="2">
         <v>1.2648981479913699E-2</v>
@@ -7248,7 +7747,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C32" s="2">
         <v>1050.3742437710901</v>
@@ -7273,7 +7772,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C33" s="2">
         <v>4.5953976512351502E-3</v>
@@ -7298,7 +7797,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="4">
         <v>1.8653247966439099E-3</v>
@@ -7323,7 +7822,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4">
         <v>1.26844693704135E-4</v>
@@ -7348,7 +7847,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="4">
         <v>2.1068362848119801E-5</v>
@@ -7373,7 +7872,7 @@
         <v>76</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" s="4">
         <v>1.55566600621825E-4</v>
@@ -7398,7 +7897,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" s="4">
         <v>2.3157863041230798E-3</v>
@@ -7423,7 +7922,7 @@
         <v>90</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="2">
         <v>7.2989141098383397E-4</v>
@@ -7445,10 +7944,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="2">
         <v>3.2447776402403801E-3</v>
@@ -7470,20 +7969,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C41" s="2">
         <v>5.44237636821687E-4</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:D43" si="16">C41*0.9</f>
+        <f t="shared" ref="D41:D47" si="16">C41*0.9</f>
         <v>4.8981387313951834E-4</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:E43" si="17">C41*1.1</f>
+        <f t="shared" ref="E41:E47" si="17">C41*1.1</f>
         <v>5.9866140050385578E-4</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -7495,10 +7994,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C42">
         <v>2.2025637355120802E-2</v>
@@ -7520,10 +8019,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C43">
         <v>2.24277435184297E-5</v>
@@ -7541,6 +8040,106 @@
       </c>
       <c r="G43" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="2">
+        <v>3.2447776402403801E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="16"/>
+        <v>2.920299876216342E-3</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="17"/>
+        <v>3.5692554042644183E-3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45">
+        <v>3.6518710388500998E-2</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="16"/>
+        <v>3.28668393496509E-2</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="17"/>
+        <v>4.0170581427351103E-2</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C46">
+        <v>1.94098739581877E-2</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="16"/>
+        <v>1.7468886562368932E-2</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="17"/>
+        <v>2.1350861354006472E-2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -7551,10 +8150,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A51A52-8F98-9E4F-A71B-2360CB867449}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -7594,7 +8193,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*2640600</f>
@@ -7620,7 +8219,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2">
         <v>4.4319375689561899E-5</v>
@@ -7645,7 +8244,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2">
         <v>2.7354797511960701E-3</v>
@@ -7670,7 +8269,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2">
         <v>1361.3</v>
@@ -7695,7 +8294,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2">
         <v>4.26542394927693E-5</v>
@@ -7720,7 +8319,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2">
         <v>1.5557060793442898E-5</v>
@@ -7745,7 +8344,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2">
         <v>9.6853809141301598E-6</v>
@@ -7770,7 +8369,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4">
         <v>6.4859255862632996E-7</v>
@@ -7795,7 +8394,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="4">
         <v>1.52971244294428E-7</v>
@@ -7820,7 +8419,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2">
         <v>1.20302707977634E-6</v>
@@ -7845,7 +8444,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="4">
         <v>9.8640602855776595E-7</v>
@@ -7870,7 +8469,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="4">
         <v>3.1744616659782298E-7</v>
@@ -7895,7 +8494,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4">
         <v>4.0747820866335698E-7</v>
@@ -7920,7 +8519,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="4">
         <v>3.8412782397052498E-7</v>
@@ -7945,7 +8544,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="4">
         <v>3.2120780130542602E-7</v>
@@ -7970,7 +8569,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="4">
         <v>5.2525802715572602E-7</v>
@@ -7995,7 +8594,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4">
         <v>7.6175771506860502E-8</v>
@@ -8020,7 +8619,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4">
         <v>6.2559500854094699E-8</v>
@@ -8045,7 +8644,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="4">
         <v>1.7531475209461001E-7</v>
@@ -8070,7 +8669,7 @@
         <v>82</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
@@ -8096,7 +8695,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
@@ -8122,7 +8721,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2">
         <v>5.0165585859972699E-6</v>
@@ -8147,7 +8746,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="4">
         <v>2.37219279862376E-10</v>
@@ -8172,7 +8771,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2">
         <v>6.3436335966638096E-6</v>
@@ -8197,7 +8796,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2">
         <v>1.4813124911044001E-5</v>
@@ -8222,7 +8821,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2">
         <v>1.36721471797109E-5</v>
@@ -8247,7 +8846,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C28" s="4">
         <v>1.6224099962766102E-8</v>
@@ -8272,7 +8871,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2">
         <v>1.22355858303268E-6</v>
@@ -8297,7 +8896,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C30" s="4">
         <v>1.8440030567095E-7</v>
@@ -8322,7 +8921,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="4">
         <v>4.1295962098490499E-7</v>
@@ -8347,7 +8946,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C32" s="2">
         <v>3.3445943808348498E-2</v>
@@ -8372,7 +8971,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="4">
         <v>2.8359747734011902E-7</v>
@@ -8397,7 +8996,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C34" s="4">
         <v>7.1165559448528197E-8</v>
@@ -8422,7 +9021,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C35" s="4">
         <v>1.7138712592212501E-8</v>
@@ -8447,7 +9046,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C36" s="4">
         <v>5.8897892581883899E-9</v>
@@ -8472,7 +9071,7 @@
         <v>76</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" s="4">
         <v>9.5239404427333406E-9</v>
@@ -8497,7 +9096,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C38" s="4">
         <v>6.2559500854094699E-8</v>
@@ -8522,7 +9121,7 @@
         <v>90</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" s="4">
         <v>1.7521292791577999E-7</v>
@@ -8544,10 +9143,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="4">
         <v>6.9323662765885296E-8</v>
@@ -8569,20 +9168,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4">
         <v>1.35828398716643E-7</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:D43" si="16">C41*0.9</f>
+        <f t="shared" ref="D41:D47" si="16">C41*0.9</f>
         <v>1.2224555884497871E-7</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:E43" si="17">C41*1.1</f>
+        <f t="shared" ref="E41:E47" si="17">C41*1.1</f>
         <v>1.4941123858830732E-7</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -8594,10 +9193,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C42" s="5">
         <v>8.0003073000743997E-7</v>
@@ -8619,10 +9218,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" s="5">
         <v>4.8788068592676098E-9</v>
@@ -8640,6 +9239,106 @@
       </c>
       <c r="G43" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="4">
+        <v>6.9323662765885296E-8</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="16"/>
+        <v>6.2391296489296769E-8</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="17"/>
+        <v>7.6256029042473836E-8</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.4889929154759501E-7</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="16"/>
+        <v>1.3400936239283552E-7</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="17"/>
+        <v>1.6378922070235452E-7</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46">
+        <v>1.36841235894102E-6</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="16"/>
+        <v>1.231571123046918E-6</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="17"/>
+        <v>1.505253594835122E-6</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8650,10 +9349,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868E75BC-0D54-F046-9DC9-380953A4C8CF}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8692,7 +9391,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*2913900000</f>
@@ -8718,7 +9417,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2">
         <v>4.9501181421726802E-5</v>
@@ -8743,7 +9442,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2">
         <v>3.1118333796906201E-3</v>
@@ -8768,7 +9467,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2">
         <v>1215800</v>
@@ -8793,7 +9492,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2">
         <v>3.1444908337156601E-6</v>
@@ -8818,7 +9517,7 @@
         <v>78</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="4">
         <v>9.4517864384468497E-7</v>
@@ -8843,7 +9542,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="4">
         <v>6.8008278613182202E-7</v>
@@ -8868,7 +9567,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C9" s="4">
         <v>8.0186542577446895E-7</v>
@@ -8893,7 +9592,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="2">
         <v>1.16883336646664E-6</v>
@@ -8918,7 +9617,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2">
         <v>2.2372140529189699E-6</v>
@@ -8943,7 +9642,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C12" s="4">
         <v>5.2493692777873801E-7</v>
@@ -8968,7 +9667,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2">
         <v>1.1642122188829099E-6</v>
@@ -8993,7 +9692,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4">
         <v>5.3173639698283999E-7</v>
@@ -9018,7 +9717,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C15" s="4">
         <v>3.8989703735471301E-7</v>
@@ -9043,7 +9742,7 @@
         <v>70</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C16" s="4">
         <v>3.4194034251148601E-7</v>
@@ -9068,7 +9767,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="2">
         <v>3.2204476077404098E-6</v>
@@ -9093,7 +9792,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C18" s="4">
         <v>2.6384905321046399E-8</v>
@@ -9118,7 +9817,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4">
         <v>1.03246358006903E-7</v>
@@ -9143,7 +9842,7 @@
         <v>72</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="4">
         <v>6.4982454349298505E-8</v>
@@ -9168,7 +9867,7 @@
         <v>82</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
@@ -9194,7 +9893,7 @@
         <v>87</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
@@ -9220,7 +9919,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2">
         <v>1.04651248988641E-6</v>
@@ -9245,7 +9944,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C24" s="4">
         <v>3.96274107845705E-10</v>
@@ -9270,7 +9969,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2">
         <v>2.69911035928093E-6</v>
@@ -9295,7 +9994,7 @@
         <v>47</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C26" s="2">
         <v>1.19766326737316E-4</v>
@@ -9320,7 +10019,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C27" s="2">
         <v>6.3012831403154302E-5</v>
@@ -9345,7 +10044,7 @@
         <v>73</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C28" s="4">
         <v>2.0067676432280301E-8</v>
@@ -9370,7 +10069,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2">
         <v>1.2915445282883899E-6</v>
@@ -9395,7 +10094,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C30" s="4">
         <v>7.0613066807824003E-8</v>
@@ -9420,7 +10119,7 @@
         <v>84</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C31" s="4">
         <v>7.3490526909135398E-7</v>
@@ -9445,7 +10144,7 @@
         <v>63</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C32" s="2">
         <v>0.48668449072846598</v>
@@ -9470,7 +10169,7 @@
         <v>49</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="4">
         <v>3.82547077276398E-7</v>
@@ -9495,7 +10194,7 @@
         <v>50</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C34" s="4">
         <v>1.09456777755958E-7</v>
@@ -9520,7 +10219,7 @@
         <v>75</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C35" s="4">
         <v>1.7219546847186501E-8</v>
@@ -9545,7 +10244,7 @@
         <v>85</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C36" s="4">
         <v>1.2794223732729199E-9</v>
@@ -9570,7 +10269,7 @@
         <v>76</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C37" s="4">
         <v>1.4087130760540099E-8</v>
@@ -9595,7 +10294,7 @@
         <v>86</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C38" s="4">
         <v>1.03246358006903E-7</v>
@@ -9620,7 +10319,7 @@
         <v>90</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C39" s="4">
         <v>5.7165133755994603E-8</v>
@@ -9642,10 +10341,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="4">
         <v>3.8413396257382402E-7</v>
@@ -9667,20 +10366,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C41" s="4">
         <v>3.5459925001198301E-8</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:D43" si="16">C41*0.9</f>
+        <f t="shared" ref="D41:D47" si="16">C41*0.9</f>
         <v>3.1913932501078469E-8</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:E43" si="17">C41*1.1</f>
+        <f t="shared" ref="E41:E47" si="17">C41*1.1</f>
         <v>3.9005917501318133E-8</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -9692,10 +10391,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C42" s="5">
         <v>7.3869682663406E-7</v>
@@ -9717,10 +10416,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" s="5">
         <v>2.90167829112504E-9</v>
@@ -9738,6 +10437,106 @@
       </c>
       <c r="G43" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3.8413396257382402E-7</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="16"/>
+        <v>3.457205663164416E-7</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="17"/>
+        <v>4.2254735883120643E-7</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45">
+        <v>3.4729782574104902E-6</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="16"/>
+        <v>3.1256804316694413E-6</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="17"/>
+        <v>3.8202760831515395E-6</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46">
+        <v>1.66205158983079E-6</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="16"/>
+        <v>1.495846430847711E-6</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8282567488138692E-6</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -9748,10 +10547,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578089A2-98D2-704F-AF44-C2497A6C7B0D}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10741,7 +11540,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>21</v>
@@ -10766,7 +11565,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>21</v>
@@ -10775,11 +11574,11 @@
         <v>5.4816021053101802E-8</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:D43" si="18">C41*0.9</f>
+        <f t="shared" ref="D41:D47" si="18">C41*0.9</f>
         <v>4.9334418947791624E-8</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:E43" si="19">C41*1.1</f>
+        <f t="shared" ref="E41:E47" si="19">C41*1.1</f>
         <v>6.0297623158411993E-8</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -10791,7 +11590,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>21</v>
@@ -10816,7 +11615,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>21</v>
@@ -10837,6 +11636,106 @@
       </c>
       <c r="G43" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="4">
+        <v>5.02237115724956E-9</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="18"/>
+        <v>4.5201340415246039E-9</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="19"/>
+        <v>5.5246082729745162E-9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3.1441694526514999E-9</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="18"/>
+        <v>2.8297525073863499E-9</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="19"/>
+        <v>3.4585863979166503E-9</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="5">
+        <v>6.1542848827806598E-8</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="18"/>
+        <v>5.5388563945025941E-8</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="19"/>
+        <v>6.7697133710587262E-8</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -10847,10 +11746,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32918E97-33AC-4743-867D-87B08CF8DB3F}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10891,7 +11790,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2">
         <f>1.26/74049000*157380</f>
@@ -10917,7 +11816,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2">
         <v>0.136247491638952</v>
@@ -10942,7 +11841,7 @@
         <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2">
         <v>1.7588800841988601</v>
@@ -10967,7 +11866,7 @@
         <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2">
         <v>47.311999999999998</v>
@@ -10992,7 +11891,7 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2">
         <v>1.45718262996165E-2</v>
@@ -11017,7 +11916,7 @@
         <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2">
         <v>2.6339300371814199E-3</v>
@@ -11042,7 +11941,7 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2">
         <v>2.6208910448873302E-3</v>
@@ -11067,7 +11966,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2">
         <v>2.0127348564505701E-3</v>
@@ -11092,7 +11991,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4">
         <v>7.1684795601515805E-4</v>
@@ -11117,7 +12016,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2">
         <v>1.4561215154325799E-2</v>
@@ -11142,7 +12041,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2">
         <v>9.4276670361154895E-4</v>
@@ -11167,7 +12066,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2">
         <v>1.5657128434967899E-3</v>
@@ -11192,7 +12091,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2">
         <v>1.7925435248283099E-3</v>
@@ -11217,7 +12116,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2">
         <v>8.9356389488030397E-4</v>
@@ -11242,7 +12141,7 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2">
         <v>1.25147474900208E-3</v>
@@ -11267,7 +12166,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2">
         <v>1.1509948878270001E-3</v>
@@ -11292,7 +12191,7 @@
         <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2">
         <v>7.2796937302769103E-5</v>
@@ -11317,7 +12216,7 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2">
         <v>7.4827948876014295E-4</v>
@@ -11342,7 +12241,7 @@
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="2">
         <v>3.7350711338613899E-4</v>
@@ -11367,7 +12266,7 @@
         <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" s="2">
         <f>0.147*C37+0.1222*C35+87.3/3600*C38+2.3704*C37+0.312*C36+(1000-1000*7.8/100/101.07*207.43)/1000*C31+0.9454*C24+1000*7.8/100/1000*C32/35335*2665+1000*7.8/100/101.07*(207.43-101.07)/1000*C33+0.487*1000*7.8/100/101.07*207.43/1000*C38+2.59/1000*C34</f>
@@ -11393,7 +12292,7 @@
         <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2">
         <f>0.4168*C36+3.358*C35+0.206*C37+1.6569*C37+0.4856*C36+0.0149*C38+1.2669*C36+0.7722*C23+0.6177*C24+0.0349*C25+0.136*C26+0.0834*C27+0.0973*C28+0.0088*C29+1.301*C30</f>
@@ -11419,7 +12318,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="2">
         <v>1.2145737319203399E-3</v>
@@ -11444,7 +12343,7 @@
         <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4">
         <v>5.7304940805911404E-7</v>
@@ -11469,7 +12368,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C25" s="2">
         <v>2.2751512404486302E-3</v>
@@ -11494,7 +12393,7 @@
         <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2">
         <v>5.4005325050390303E-2</v>
@@ -11519,7 +12418,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="2">
         <v>4.0208551981352203E-2</v>
@@ -11544,7 +12443,7 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2">
         <v>1.12199651389125E-3</v>
@@ -11569,7 +12468,7 @@
         <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="2">
         <v>2.3956307055364502E-3</v>
@@ -11594,7 +12493,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C30" s="2">
         <v>4.3360202511825502E-4</v>
@@ -11619,7 +12518,7 @@
         <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" s="2">
         <v>2.4524747977945302E-3</v>
@@ -11644,7 +12543,7 @@
         <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C32" s="2">
         <v>181.551863111237</v>
@@ -11669,7 +12568,7 @@
         <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33" s="2">
         <v>1.2847612128718999E-3</v>
@@ -11694,7 +12593,7 @@
         <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C34" s="2">
         <v>5.9211828671597202E-4</v>
@@ -11719,7 +12618,7 @@
         <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C35" s="4">
         <v>3.14568348860363E-5</v>
@@ -11744,7 +12643,7 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36" s="4">
         <v>7.8226430759175992E-6</v>
@@ -11769,7 +12668,7 @@
         <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="4">
         <v>4.4168411916288298E-5</v>
@@ -11794,7 +12693,7 @@
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C38" s="2">
         <v>7.4827948876014295E-4</v>
@@ -11819,7 +12718,7 @@
         <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C39" s="2">
         <v>3.1106918967542698E-4</v>
@@ -11841,10 +12740,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" s="2">
         <v>1.81406439244205E-4</v>
@@ -11866,20 +12765,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="2">
         <v>2.11969499765487E-4</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:D43" si="14">C41*0.9</f>
+        <f t="shared" ref="D41:D47" si="14">C41*0.9</f>
         <v>1.907725497889383E-4</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:E43" si="15">C41*1.1</f>
+        <f t="shared" ref="E41:E47" si="15">C41*1.1</f>
         <v>2.3316644974203572E-4</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -11891,10 +12790,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42">
         <v>2.1039206231167002E-3</v>
@@ -11916,10 +12815,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43">
         <v>1.11773129623235E-5</v>
@@ -11937,6 +12836,106 @@
       </c>
       <c r="G43" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.81406439244205E-4</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6326579531978451E-4</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="15"/>
+        <v>1.9954708316862553E-4</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45">
+        <v>4.47558049006039E-4</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="14"/>
+        <v>4.0280224410543509E-4</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="15"/>
+        <v>4.9231385390664296E-4</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46">
+        <v>5.2649145604685204E-3</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="14"/>
+        <v>4.7384231044216686E-3</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="15"/>
+        <v>5.7914060165153731E-3</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
